--- a/Enemy1.xlsx
+++ b/Enemy1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="4460" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -647,10 +647,10 @@
         <v>200</v>
       </c>
       <c r="H2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="I2">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="J2">
         <v>90</v>
@@ -739,10 +739,10 @@
         <v>70000</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="I3">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="J3">
         <v>50</v>
